--- a/output_data/ELLY_DPOL_ExpIII_contrasts_log_reductions_between_methods.xlsx
+++ b/output_data/ELLY_DPOL_ExpIII_contrasts_log_reductions_between_methods.xlsx
@@ -456,7 +456,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.929687863073622</v>
+        <v>0.929687863073623</v>
       </c>
       <c r="D4" t="n">
         <v>0.27097952197069</v>
@@ -468,7 +468,7 @@
         <v>3.43084177104047</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0142748766135226</v>
+        <v>0.0142748766135224</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         <v>0.552598530064815</v>
       </c>
       <c r="D5" t="n">
-        <v>0.30296431581843</v>
+        <v>0.302964315818431</v>
       </c>
       <c r="E5" t="n">
         <v>11</v>
@@ -502,7 +502,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>0.811089029688877</v>
+        <v>0.811089029688878</v>
       </c>
       <c r="D6" t="n">
         <v>0.302964315818431</v>
@@ -511,10 +511,10 @@
         <v>11</v>
       </c>
       <c r="F6" t="n">
-        <v>2.67717677409563</v>
+        <v>2.67717677409564</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0520540926399815</v>
+        <v>0.0520540926399812</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>0.258490499624061</v>
+        <v>0.258490499624063</v>
       </c>
       <c r="D7" t="n">
         <v>0.27097952197069</v>
@@ -534,10 +534,10 @@
         <v>11</v>
       </c>
       <c r="F7" t="n">
-        <v>0.953911564033316</v>
+        <v>0.953911564033321</v>
       </c>
       <c r="G7" t="n">
-        <v>0.619304422908332</v>
+        <v>0.61930442290833</v>
       </c>
     </row>
   </sheetData>
